--- a/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H2">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J2">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.426834393384955</v>
+        <v>0.960636</v>
       </c>
       <c r="N2">
-        <v>0.426834393384955</v>
+        <v>2.881908</v>
       </c>
       <c r="O2">
-        <v>0.1239541586445105</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="P2">
-        <v>0.1239541586445105</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="Q2">
-        <v>37.62827381478137</v>
+        <v>95.95127955697201</v>
       </c>
       <c r="R2">
-        <v>37.62827381478137</v>
+        <v>863.561516012748</v>
       </c>
       <c r="S2">
-        <v>0.04499041273971845</v>
+        <v>0.0832221346315442</v>
       </c>
       <c r="T2">
-        <v>0.04499041273971845</v>
+        <v>0.08322213463154422</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>88.1566115522585</v>
+        <v>99.883077</v>
       </c>
       <c r="H3">
-        <v>88.1566115522585</v>
+        <v>299.649231</v>
       </c>
       <c r="I3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J3">
-        <v>0.3629600913088116</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>3.01665147310443</v>
+        <v>0.5285266666666667</v>
       </c>
       <c r="N3">
-        <v>3.01665147310443</v>
+        <v>1.58558</v>
       </c>
       <c r="O3">
-        <v>0.8760458413554895</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="P3">
-        <v>0.8760458413554895</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="Q3">
-        <v>265.9377721030156</v>
+        <v>52.79086974322</v>
       </c>
       <c r="R3">
-        <v>265.9377721030156</v>
+        <v>475.11782768898</v>
       </c>
       <c r="S3">
-        <v>0.3179696785690931</v>
+        <v>0.04578749641872116</v>
       </c>
       <c r="T3">
-        <v>0.3179696785690931</v>
+        <v>0.04578749641872117</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>123.796953426759</v>
+        <v>99.883077</v>
       </c>
       <c r="H4">
-        <v>123.796953426759</v>
+        <v>299.649231</v>
       </c>
       <c r="I4">
-        <v>0.5096991902064321</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="J4">
-        <v>0.5096991902064321</v>
+        <v>0.3917580942718377</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.426834393384955</v>
+        <v>3.032914666666667</v>
       </c>
       <c r="N4">
-        <v>0.426834393384955</v>
+        <v>9.098744</v>
       </c>
       <c r="O4">
-        <v>0.1239541586445105</v>
+        <v>0.6706905793738452</v>
       </c>
       <c r="P4">
-        <v>0.1239541586445105</v>
+        <v>0.6706905793738454</v>
       </c>
       <c r="Q4">
-        <v>52.8407975188162</v>
+        <v>302.936849185096</v>
       </c>
       <c r="R4">
-        <v>52.8407975188162</v>
+        <v>2726.431642665864</v>
       </c>
       <c r="S4">
-        <v>0.06317933428382662</v>
+        <v>0.2627484632215723</v>
       </c>
       <c r="T4">
-        <v>0.06317933428382662</v>
+        <v>0.2627484632215724</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>123.796953426759</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H5">
-        <v>123.796953426759</v>
+        <v>372.048424</v>
       </c>
       <c r="I5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J5">
-        <v>0.5096991902064321</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.01665147310443</v>
+        <v>0.960636</v>
       </c>
       <c r="N5">
-        <v>3.01665147310443</v>
+        <v>2.881908</v>
       </c>
       <c r="O5">
-        <v>0.8760458413554895</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="P5">
-        <v>0.8760458413554895</v>
+        <v>0.2124324572954377</v>
       </c>
       <c r="Q5">
-        <v>373.452261920673</v>
+        <v>119.134369945888</v>
       </c>
       <c r="R5">
-        <v>373.452261920673</v>
+        <v>1072.209329512992</v>
       </c>
       <c r="S5">
-        <v>0.4465198559226055</v>
+        <v>0.1033296962860613</v>
       </c>
       <c r="T5">
-        <v>0.4465198559226055</v>
+        <v>0.1033296962860614</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.9288170326555</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H6">
-        <v>30.9288170326555</v>
+        <v>372.048424</v>
       </c>
       <c r="I6">
-        <v>0.1273407184847563</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J6">
-        <v>0.1273407184847563</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.426834393384955</v>
+        <v>0.5285266666666667</v>
       </c>
       <c r="N6">
-        <v>0.426834393384955</v>
+        <v>1.58558</v>
       </c>
       <c r="O6">
-        <v>0.1239541586445105</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="P6">
-        <v>0.1239541586445105</v>
+        <v>0.116876963330717</v>
       </c>
       <c r="Q6">
-        <v>13.20148285624777</v>
+        <v>65.54583779176889</v>
       </c>
       <c r="R6">
-        <v>13.20148285624777</v>
+        <v>589.91254012592</v>
       </c>
       <c r="S6">
-        <v>0.01578441162096544</v>
+        <v>0.05685035741503655</v>
       </c>
       <c r="T6">
-        <v>0.01578441162096544</v>
+        <v>0.05685035741503656</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>30.9288170326555</v>
+        <v>124.0161413333333</v>
       </c>
       <c r="H7">
-        <v>30.9288170326555</v>
+        <v>372.048424</v>
       </c>
       <c r="I7">
-        <v>0.1273407184847563</v>
+        <v>0.4864119993789693</v>
       </c>
       <c r="J7">
-        <v>0.1273407184847563</v>
+        <v>0.4864119993789694</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.01665147310443</v>
+        <v>3.032914666666667</v>
       </c>
       <c r="N7">
-        <v>3.01665147310443</v>
+        <v>9.098744</v>
       </c>
       <c r="O7">
-        <v>0.8760458413554895</v>
+        <v>0.6706905793738452</v>
       </c>
       <c r="P7">
-        <v>0.8760458413554895</v>
+        <v>0.6706905793738454</v>
       </c>
       <c r="Q7">
-        <v>93.3014614629376</v>
+        <v>376.1303739532729</v>
       </c>
       <c r="R7">
-        <v>93.3014614629376</v>
+        <v>3385.173365579456</v>
       </c>
       <c r="S7">
-        <v>0.1115563068637909</v>
+        <v>0.3262319456778713</v>
       </c>
       <c r="T7">
-        <v>0.1115563068637909</v>
+        <v>0.3262319456778715</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>31.06188766666667</v>
+      </c>
+      <c r="H8">
+        <v>93.18566300000001</v>
+      </c>
+      <c r="I8">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="J8">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.960636</v>
+      </c>
+      <c r="N8">
+        <v>2.881908</v>
+      </c>
+      <c r="O8">
+        <v>0.2124324572954377</v>
+      </c>
+      <c r="P8">
+        <v>0.2124324572954377</v>
+      </c>
+      <c r="Q8">
+        <v>29.839167520556</v>
+      </c>
+      <c r="R8">
+        <v>268.552507685004</v>
+      </c>
+      <c r="S8">
+        <v>0.02588062637783211</v>
+      </c>
+      <c r="T8">
+        <v>0.02588062637783212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>31.06188766666667</v>
+      </c>
+      <c r="H9">
+        <v>93.18566300000001</v>
+      </c>
+      <c r="I9">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="J9">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.5285266666666667</v>
+      </c>
+      <c r="N9">
+        <v>1.58558</v>
+      </c>
+      <c r="O9">
+        <v>0.116876963330717</v>
+      </c>
+      <c r="P9">
+        <v>0.116876963330717</v>
+      </c>
+      <c r="Q9">
+        <v>16.41703594883778</v>
+      </c>
+      <c r="R9">
+        <v>147.75332353954</v>
+      </c>
+      <c r="S9">
+        <v>0.01423910949695932</v>
+      </c>
+      <c r="T9">
+        <v>0.01423910949695932</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>31.06188766666667</v>
+      </c>
+      <c r="H10">
+        <v>93.18566300000001</v>
+      </c>
+      <c r="I10">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="J10">
+        <v>0.121829906349193</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>3.032914666666667</v>
+      </c>
+      <c r="N10">
+        <v>9.098744</v>
+      </c>
+      <c r="O10">
+        <v>0.6706905793738452</v>
+      </c>
+      <c r="P10">
+        <v>0.6706905793738454</v>
+      </c>
+      <c r="Q10">
+        <v>94.20805467858578</v>
+      </c>
+      <c r="R10">
+        <v>847.872492107272</v>
+      </c>
+      <c r="S10">
+        <v>0.08171017047440154</v>
+      </c>
+      <c r="T10">
+        <v>0.08171017047440159</v>
       </c>
     </row>
   </sheetData>
